--- a/biology/Botanique/Lobe_(botanique)/Lobe_(botanique).xlsx
+++ b/biology/Botanique/Lobe_(botanique)/Lobe_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, le lobe est une division arrondie et peu profonde du limbe d'une feuille. C'est aussi la division d'une feuille ou d'autres organes dont le format est plus grand qu'une dent (feuille dentée) et dépourvue de tige distincte[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, le lobe est une division arrondie et peu profonde du limbe d'une feuille. C'est aussi la division d'une feuille ou d'autres organes dont le format est plus grand qu'une dent (feuille dentée) et dépourvue de tige distincte.
 </t>
         </is>
       </c>
